--- a/Core_grade_CS2233_Team6.xlsx
+++ b/Core_grade_CS2233_Team6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kantik\Desktop\Study\WebDevSchool\WebFinal_Travel_Agency-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kantik\Desktop\Study\WebDevSchool\WebFinal_Travel_Agency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91528536-6689-429D-9161-FAF5A9902BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F42ABC4-8323-42BB-BDCB-9EF04028CEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Grading parts</t>
   </si>
@@ -142,9 +142,6 @@
     </r>
   </si>
   <si>
-    <t>5 means you have ALL 5 of Required elements. If you have multip elements, list their location like this: email(index.html: #45-46), phone(index.html: #55-58), calendar(index.html: #60-65), dropdown (index.html: #80-88), checkbox(index.html: #98-100)</t>
-  </si>
-  <si>
     <t>Footer:</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>Buttons(minimum one button in each of 3 pages)</t>
   </si>
   <si>
-    <t>if you have 2 buttons, and no button in 3rd page: put 2</t>
-  </si>
-  <si>
     <t>Grid layout(for each of 3 pages)</t>
   </si>
   <si>
@@ -179,9 +173,6 @@
   </si>
   <si>
     <t>Use selectors, methods and events</t>
-  </si>
-  <si>
-    <t>1 for each</t>
   </si>
   <si>
     <t>Use at least three event listeners as “click”, “mouseover”, “keypress”</t>
@@ -238,17 +229,77 @@
     <t>homepage.css, bookpage.css, destinations.css</t>
   </si>
   <si>
-    <t xml:space="preserve">index.html: #225-247, bookpage.html: #180-203, destinations.html: </t>
+    <t>Core_grade_CS2233_Team6.xlsx</t>
   </si>
   <si>
-    <t>Core_grade_CS2233_Team6.xlsx</t>
+    <t>Across all pages #19-55</t>
+  </si>
+  <si>
+    <t>Across all pages ~#22-24</t>
+  </si>
+  <si>
+    <t>Destinations: #142-163</t>
+  </si>
+  <si>
+    <t>index.html: #90 (etc.), destinations.html: #64(etc.), bookpage.html: #23</t>
+  </si>
+  <si>
+    <t>email(bookpage.html: #113-114), phone(bookpage.html: #119-120), calendar(bookpage.html: #134-139), dropdown(bookpage.html: #123-129), checkbox(bookpage.html: #146-167)</t>
+  </si>
+  <si>
+    <t>index.html: #225-247, bookpage.html: #180-203, destinations.html: #262-284</t>
+  </si>
+  <si>
+    <t>index.html: #72, destinations.html: #137, bookpage.html: #172</t>
+  </si>
+  <si>
+    <t>body part on all pages</t>
+  </si>
+  <si>
+    <t>lightcyan, darkcyan, very-darkcyan</t>
+  </si>
+  <si>
+    <t>b-script.js: #6, #44, #147</t>
+  </si>
+  <si>
+    <t>b-script.js: #137, #6, d-script: #36-42</t>
+  </si>
+  <si>
+    <t>b-script.js: #36-40</t>
+  </si>
+  <si>
+    <t>script.js: #10</t>
+  </si>
+  <si>
+    <t>Poppins and Wix Madefor Display</t>
+  </si>
+  <si>
+    <t>Hierarchy, Layout, Alignment, White Spacing and Audience are in place</t>
+  </si>
+  <si>
+    <t>Top to bottom, left to right. Simple interface and consistent navigation bar</t>
+  </si>
+  <si>
+    <t>Homepage (script.js:# 60-80, homepage.css: #253-255). Destinations (destinations.html: #131-170, #61-85). Bookpage (bookpage.html: #59-65, b-script.js: #36-40)</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Aloha Travel! (kantikkk.github.io)</t>
+  </si>
+  <si>
+    <t>index.html: #13</t>
+  </si>
+  <si>
+    <t>index.html: #44</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -287,6 +338,13 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -323,10 +381,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -385,8 +444,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -606,10 +667,10 @@
   <dimension ref="A1:E992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -655,7 +716,9 @@
       <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -666,10 +729,12 @@
       <c r="C4" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -679,7 +744,9 @@
       <c r="C5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -690,10 +757,12 @@
       <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="14" t="s">
         <v>11</v>
@@ -702,29 +771,29 @@
         <v>5</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -733,7 +802,7 @@
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="11"/>
@@ -741,7 +810,7 @@
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="12"/>
@@ -751,13 +820,13 @@
     <row r="12" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="12">
         <v>1</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -770,7 +839,7 @@
     </row>
     <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="12"/>
@@ -780,82 +849,87 @@
     <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="12">
         <v>3</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="18">
         <v>3</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="12">
         <v>3</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C19" s="12">
         <v>3</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" s="12">
         <v>1</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="12">
         <v>1</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -867,7 +941,7 @@
     </row>
     <row r="23" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="12"/>
@@ -877,7 +951,7 @@
     <row r="24" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24" s="12">
         <v>1</v>
@@ -888,48 +962,52 @@
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C25" s="12">
         <v>1</v>
       </c>
-      <c r="D25" s="11"/>
+      <c r="D25" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C26" s="12">
         <v>1</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C27" s="12">
         <v>5</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>25</v>
+      <c r="D27" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C28" s="12">
         <v>3</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>25</v>
+      <c r="D28" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -942,23 +1020,23 @@
     </row>
     <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="12"/>
       <c r="D30" s="11"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C31" s="12">
         <v>6</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>25</v>
+      <c r="D31" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -971,7 +1049,7 @@
     </row>
     <row r="33" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="12"/>
@@ -981,67 +1059,79 @@
     <row r="34" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
       </c>
-      <c r="D34" s="11"/>
+      <c r="D34" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
       </c>
-      <c r="D35" s="11"/>
+      <c r="D35" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
       </c>
-      <c r="D36" s="11"/>
+      <c r="D36" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
       </c>
-      <c r="D37" s="11"/>
+      <c r="D37" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
       </c>
-      <c r="D38" s="11"/>
+      <c r="D38" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
       </c>
-      <c r="D39" s="11"/>
+      <c r="D39" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -7716,6 +7806,10 @@
       <c r="E992" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D39" r:id="rId1" display="https://kantikkk.github.io/WebFinal_Travel_Agency/" xr:uid="{97C14ACB-8CED-40B0-A857-3E09DDC1E5FA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>